--- a/sky-server/src/main/resources/template/运营数据报表模板.xlsx
+++ b/sky-server/src/main/resources/template/运营数据报表模板.xlsx
@@ -1,43 +1,474 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\reggie_parent\reggie_server\src\main\resources\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C592E-8D03-4F3D-B636-431992BC63AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">	营业额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	有效订单</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单完成率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均客单价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营数据报表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>概览数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -45,15 +476,378 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,9 +908,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,9 +943,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -330,13 +1124,351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3140704A-7B60-4B9F-AEE4-9B02765B2FB0}">
+  <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.6328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>